--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1394865.011520047</v>
+        <v>1392673.134366874</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28215137.91942697</v>
+        <v>28215137.91942701</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3165573.335774305</v>
+        <v>3165573.335774306</v>
       </c>
     </row>
     <row r="9">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
-        <v>41.31500304752735</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="F3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -816,73 +816,73 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C4" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>21.20364308168184</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>41.31500304752735</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U7" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
-        <v>41.31500304752735</v>
+        <v>15.18661160258025</v>
       </c>
     </row>
     <row r="8">
@@ -1220,64 +1220,64 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>41.31500304752735</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>62.73473457296156</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>183.2079550865715</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H12" t="n">
         <v>33.9158123956896</v>
@@ -1548,7 +1548,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>240.675072556151</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6136207896234</v>
+        <v>275.6136207896231</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.8093040361636</v>
+        <v>344.158774300646</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H15" t="n">
         <v>33.9158123956896</v>
@@ -1782,10 +1782,10 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H16" t="n">
-        <v>132.7900107487581</v>
+        <v>132.7900107487582</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>146.4504960531557</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T16" t="n">
         <v>240.675072556151</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.0389787731449</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>297.4026934430792</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H18" t="n">
         <v>33.9158123956896</v>
@@ -2022,7 +2022,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541646</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5249373799505</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.9513258013682</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>292.48223004664</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2174,7 +2174,7 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H21" t="n">
         <v>33.9158123956896</v>
@@ -2259,7 +2259,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I22" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427747</v>
       </c>
       <c r="T23" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5154774752252</v>
+        <v>256.5154774752247</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2411,7 +2411,7 @@
         <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H24" t="n">
         <v>33.9158123956896</v>
@@ -2496,7 +2496,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I25" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.9513258013687</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H26" t="n">
         <v>271.5679831933489</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T26" t="n">
         <v>211.5956667680352</v>
@@ -2614,7 +2614,7 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655109</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2648,7 +2648,7 @@
         <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H27" t="n">
         <v>33.9158123956896</v>
@@ -2733,7 +2733,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>395.9513258013682</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5679831933489</v>
+        <v>271.5679831933486</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.17164010427837</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T29" t="n">
         <v>211.5956667680352</v>
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H30" t="n">
         <v>33.9158123956896</v>
@@ -2970,7 +2970,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T32" t="n">
         <v>211.5956667680352</v>
@@ -3122,7 +3122,7 @@
         <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H33" t="n">
         <v>33.9158123956896</v>
@@ -3207,7 +3207,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I34" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.9513258013682</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.5956667680352</v>
@@ -3325,16 +3325,16 @@
         <v>256.5154774752252</v>
       </c>
       <c r="V35" t="n">
-        <v>24.28756777703589</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>12.57975105941118</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H36" t="n">
         <v>33.9158123956896</v>
@@ -3444,7 +3444,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I37" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695713</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T38" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>102.3948041280007</v>
+        <v>321.9537104632593</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3596,7 +3596,7 @@
         <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H39" t="n">
         <v>33.9158123956896</v>
@@ -3681,7 +3681,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I40" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>271.5679831933489</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U41" t="n">
         <v>256.5154774752252</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>36.0316417261447</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>288.7567359660911</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H42" t="n">
         <v>33.9158123956896</v>
@@ -3915,10 +3915,10 @@
         <v>163.2927798113889</v>
       </c>
       <c r="H43" t="n">
-        <v>132.7900107487581</v>
+        <v>132.7900107487582</v>
       </c>
       <c r="I43" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>146.4504960531557</v>
+        <v>146.4504960531559</v>
       </c>
       <c r="T43" t="n">
         <v>240.675072556151</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>152.4272450806547</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>25.16864893069376</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.76476917948101</v>
+        <v>83.76476917948099</v>
       </c>
       <c r="H45" t="n">
         <v>33.9158123956896</v>
@@ -4155,7 +4155,7 @@
         <v>132.7900107487581</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44914407541627</v>
+        <v>68.44914407541626</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4388,13 +4388,13 @@
         <v>123.5276858794757</v>
       </c>
       <c r="C3" t="n">
-        <v>123.5276858794757</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D3" t="n">
-        <v>86.76985286506957</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="E3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F3" t="n">
         <v>3.305200243802188</v>
@@ -4412,25 +4412,25 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>111.1725794383639</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L3" t="n">
-        <v>152.074432455416</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M3" t="n">
-        <v>165.2600121901094</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="N3" t="n">
-        <v>165.2600121901094</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O3" t="n">
-        <v>165.2600121901094</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="P3" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.79535956884203</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="C4" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="D4" t="n">
-        <v>45.03752655443588</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="E4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03752655443588</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="G4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H4" t="n">
         <v>3.305200243802188</v>
@@ -4488,19 +4488,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N4" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O4" t="n">
         <v>83.45630615600527</v>
@@ -4512,28 +4512,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X4" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4579,10 +4579,10 @@
         <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="O5" t="n">
         <v>42.55445313895319</v>
-      </c>
-      <c r="O5" t="n">
-        <v>83.45630615600527</v>
       </c>
       <c r="P5" t="n">
         <v>83.45630615600527</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>40.06303325820834</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4655,19 +4655,19 @@
         <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="N6" t="n">
+        <v>29.36887340425979</v>
+      </c>
+      <c r="O6" t="n">
         <v>42.55445313895319</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>83.45630615600527</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P6" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4679,19 +4679,19 @@
         <v>81.79535956884203</v>
       </c>
       <c r="U6" t="n">
-        <v>81.79535956884203</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="V6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="W6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.79535956884203</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C7" t="n">
         <v>3.305200243802188</v>
@@ -4725,22 +4725,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K7" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K7" t="n">
-        <v>85.10890627790634</v>
-      </c>
       <c r="L7" t="n">
-        <v>126.0107592949584</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M7" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N7" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O7" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P7" t="n">
         <v>165.2600121901094</v>
@@ -4755,10 +4755,10 @@
         <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>102.1098645848476</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="V7" t="n">
         <v>60.37753827421391</v>
@@ -4767,10 +4767,10 @@
         <v>60.37753827421391</v>
       </c>
       <c r="X7" t="n">
-        <v>60.37753827421391</v>
+        <v>18.64521196358022</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,22 +4807,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O8" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P8" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="Q8" t="n">
         <v>124.3581591730573</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E9" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4886,25 +4886,25 @@
         <v>70.27072642131186</v>
       </c>
       <c r="K9" t="n">
-        <v>111.1725794383639</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L9" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="M9" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="N9" t="n">
         <v>124.3581591730573</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>124.3581591730573</v>
       </c>
-      <c r="N9" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O9" t="n">
-        <v>165.2600121901094</v>
-      </c>
       <c r="P9" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4919,16 +4919,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
         <v>45.03752655443588</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="M10" t="n">
         <v>44.20705326085427</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>85.10890627790634</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="M10" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="N10" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O10" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="P10" t="n">
         <v>165.2600121901094</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5021791757032</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V10" t="n">
-        <v>128.5021791757032</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1767.90363905015</v>
+        <v>2470.082162775639</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.761166233574</v>
+        <v>2031.939689959062</v>
       </c>
       <c r="D11" t="n">
-        <v>893.8513814080183</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E11" t="n">
-        <v>460.0766365663134</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F11" t="n">
-        <v>460.0766365663134</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G11" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H11" t="n">
         <v>60.12580242351726</v>
@@ -5041,19 +5041,19 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J11" t="n">
-        <v>234.7606604020848</v>
+        <v>234.7606604020849</v>
       </c>
       <c r="K11" t="n">
-        <v>415.1612716583817</v>
+        <v>978.8174653931109</v>
       </c>
       <c r="L11" t="n">
-        <v>638.9641820350653</v>
+        <v>1202.620375769795</v>
       </c>
       <c r="M11" t="n">
-        <v>1036.989440093775</v>
+        <v>1451.644235768083</v>
       </c>
       <c r="N11" t="n">
-        <v>1781.046245084801</v>
+        <v>1704.697562167573</v>
       </c>
       <c r="O11" t="n">
         <v>2019.997325456326</v>
@@ -5068,25 +5068,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S11" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T11" t="n">
-        <v>2741.878700092718</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U11" t="n">
-        <v>2741.878700092718</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V11" t="n">
-        <v>2379.261750026545</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="W11" t="n">
-        <v>2194.203209535058</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="X11" t="n">
-        <v>2194.203209535058</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="Y11" t="n">
-        <v>2194.203209535058</v>
+        <v>2533.450581536206</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I12" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J12" t="n">
-        <v>157.9417523880325</v>
+        <v>508.5637505147025</v>
       </c>
       <c r="K12" t="n">
-        <v>280.472113037332</v>
+        <v>673.7775884730669</v>
       </c>
       <c r="L12" t="n">
-        <v>445.2293041160066</v>
+        <v>838.5347795517416</v>
       </c>
       <c r="M12" t="n">
-        <v>637.4931750101595</v>
+        <v>1030.798650445895</v>
       </c>
       <c r="N12" t="n">
-        <v>834.8456984678776</v>
+        <v>1228.151173903613</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.384701486661</v>
+        <v>1408.690176922396</v>
       </c>
       <c r="P12" t="n">
-        <v>1160.283168008898</v>
+        <v>1553.588643444633</v>
       </c>
       <c r="Q12" t="n">
         <v>1650.449431024751</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C13" t="n">
-        <v>940.6829283989588</v>
+        <v>940.6829283989595</v>
       </c>
       <c r="D13" t="n">
-        <v>774.8049356004815</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E13" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512194</v>
       </c>
       <c r="F13" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129756</v>
       </c>
       <c r="G13" t="n">
         <v>263.3976759832894</v>
@@ -5199,16 +5199,16 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J13" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K13" t="n">
-        <v>399.7727096942245</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L13" t="n">
-        <v>912.5617265081466</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M13" t="n">
-        <v>1471.766030621768</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N13" t="n">
         <v>2011.374141607996</v>
@@ -5232,19 +5232,19 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U13" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V13" t="n">
         <v>2049.901088400909</v>
       </c>
       <c r="W13" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X13" t="n">
         <v>1532.482929320613</v>
       </c>
       <c r="Y13" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2470.082162775639</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="C14" t="n">
-        <v>2031.939689959062</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="D14" t="n">
-        <v>1596.029905133506</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="E14" t="n">
         <v>1162.255160291802</v>
@@ -5278,52 +5278,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J14" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K14" t="n">
-        <v>978.8174653931109</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L14" t="n">
-        <v>1272.587858950985</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M14" t="n">
-        <v>1521.611718949273</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N14" t="n">
-        <v>1774.665045348764</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O14" t="n">
-        <v>2013.616125720289</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P14" t="n">
-        <v>2217.555344488757</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q14" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R14" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T14" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U14" t="n">
-        <v>3006.290121175863</v>
+        <v>2696.505153923839</v>
       </c>
       <c r="V14" t="n">
-        <v>3006.290121175863</v>
+        <v>2333.888203857666</v>
       </c>
       <c r="W14" t="n">
-        <v>3006.290121175863</v>
+        <v>1929.032749268699</v>
       </c>
       <c r="X14" t="n">
-        <v>3006.290121175863</v>
+        <v>1509.89028584801</v>
       </c>
       <c r="Y14" t="n">
-        <v>2896.381733260546</v>
+        <v>1162.255160291802</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G15" t="n">
-        <v>94.3841987827997</v>
+        <v>94.38419878279969</v>
       </c>
       <c r="H15" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I15" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J15" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K15" t="n">
-        <v>673.7775884730672</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L15" t="n">
-        <v>838.5347795517418</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M15" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N15" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O15" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P15" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R15" t="n">
         <v>1697.561900409858</v>
@@ -5436,22 +5436,22 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J16" t="n">
-        <v>191.6817584242374</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K16" t="n">
-        <v>540.3500421434336</v>
+        <v>231.5799348298916</v>
       </c>
       <c r="L16" t="n">
-        <v>1053.139058957356</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M16" t="n">
-        <v>1612.343363070977</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N16" t="n">
-        <v>2151.951474057205</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O16" t="n">
-        <v>2661.538565504743</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P16" t="n">
         <v>2777.215599969509</v>
@@ -5469,7 +5469,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U16" t="n">
-        <v>2336.856596530479</v>
+        <v>2336.856596530478</v>
       </c>
       <c r="V16" t="n">
         <v>2049.901088400909</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2470.082162775639</v>
+        <v>1896.436666187122</v>
       </c>
       <c r="C17" t="n">
-        <v>2031.939689959062</v>
+        <v>1896.436666187122</v>
       </c>
       <c r="D17" t="n">
         <v>1596.029905133506</v>
@@ -5515,52 +5515,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J17" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K17" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L17" t="n">
-        <v>638.9641820350653</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M17" t="n">
-        <v>1072.001301696831</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N17" t="n">
-        <v>1816.058106687857</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O17" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P17" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q17" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732254</v>
       </c>
       <c r="R17" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S17" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828108</v>
       </c>
       <c r="T17" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="U17" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="V17" t="n">
-        <v>3006.290121175863</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="W17" t="n">
-        <v>2601.434666586896</v>
+        <v>2741.878700092719</v>
       </c>
       <c r="X17" t="n">
-        <v>2601.434666586896</v>
+        <v>2322.736236672029</v>
       </c>
       <c r="Y17" t="n">
-        <v>2601.434666586896</v>
+        <v>2322.736236672029</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.9950767418714</v>
       </c>
       <c r="G18" t="n">
-        <v>94.38419878279969</v>
+        <v>94.3841987827997</v>
       </c>
       <c r="H18" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="I18" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J18" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K18" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L18" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M18" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N18" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P18" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q18" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R18" t="n">
         <v>1697.561900409858</v>
@@ -5652,37 +5652,37 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C19" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989593</v>
       </c>
       <c r="D19" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004818</v>
       </c>
       <c r="E19" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G19" t="n">
-        <v>263.3976759832894</v>
+        <v>263.3976759832896</v>
       </c>
       <c r="H19" t="n">
-        <v>129.2663519946448</v>
+        <v>129.266351994645</v>
       </c>
       <c r="I19" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J19" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K19" t="n">
-        <v>399.7727096942242</v>
+        <v>399.7727096942244</v>
       </c>
       <c r="L19" t="n">
-        <v>912.5617265081463</v>
+        <v>912.5617265081465</v>
       </c>
       <c r="M19" t="n">
-        <v>1471.766030621767</v>
+        <v>1471.766030621768</v>
       </c>
       <c r="N19" t="n">
         <v>2011.374141607996</v>
@@ -5706,7 +5706,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U19" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V19" t="n">
         <v>2049.901088400909</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2182.292203166207</v>
+        <v>1606.304948359291</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.14973034963</v>
+        <v>1168.162475542714</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.239945524075</v>
+        <v>1168.162475542714</v>
       </c>
       <c r="E20" t="n">
-        <v>1162.255160291802</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="F20" t="n">
         <v>734.3877307010093</v>
@@ -5752,28 +5752,28 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J20" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K20" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L20" t="n">
-        <v>1159.218076649408</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M20" t="n">
-        <v>1408.241936647696</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N20" t="n">
-        <v>2152.298741638722</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O20" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P20" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q20" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R20" t="n">
         <v>3006.290121175863</v>
@@ -5785,19 +5785,19 @@
         <v>3006.290121175863</v>
       </c>
       <c r="U20" t="n">
-        <v>3006.290121175863</v>
+        <v>2747.183578271595</v>
       </c>
       <c r="V20" t="n">
-        <v>3006.290121175863</v>
+        <v>2451.746982264888</v>
       </c>
       <c r="W20" t="n">
-        <v>2601.434666586896</v>
+        <v>2451.746982264888</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.292203166207</v>
+        <v>2032.604518844199</v>
       </c>
       <c r="Y20" t="n">
-        <v>2182.292203166207</v>
+        <v>2032.604518844199</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I21" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J21" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K21" t="n">
-        <v>673.7775884730672</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L21" t="n">
-        <v>838.5347795517418</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M21" t="n">
-        <v>1030.798650445895</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N21" t="n">
-        <v>1228.151173903613</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P21" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q21" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R21" t="n">
         <v>1697.561900409858</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C22" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D22" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E22" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F22" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G22" t="n">
-        <v>263.397675983289</v>
+        <v>263.3976759832894</v>
       </c>
       <c r="H22" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I22" t="n">
         <v>60.12580242351726</v>
@@ -5913,22 +5913,22 @@
         <v>191.6817584242374</v>
       </c>
       <c r="K22" t="n">
-        <v>540.3500421434336</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L22" t="n">
-        <v>1053.139058957356</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M22" t="n">
-        <v>1612.343363070977</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N22" t="n">
-        <v>2151.951474057205</v>
+        <v>2011.374141607996</v>
       </c>
       <c r="O22" t="n">
-        <v>2352.768458191201</v>
+        <v>2520.961233055534</v>
       </c>
       <c r="P22" t="n">
-        <v>2777.215599969509</v>
+        <v>2945.408374833841</v>
       </c>
       <c r="Q22" t="n">
         <v>2998.677814292588</v>
@@ -5943,7 +5943,7 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U22" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V22" t="n">
         <v>2049.901088400909</v>
@@ -5955,7 +5955,7 @@
         <v>1532.482929320613</v>
       </c>
       <c r="Y22" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364379</v>
       </c>
       <c r="C23" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722247</v>
       </c>
       <c r="E23" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880542</v>
       </c>
       <c r="F23" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G23" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H23" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I23" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J23" t="n">
-        <v>275.7506719908251</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K23" t="n">
-        <v>1290.5015752053</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L23" t="n">
-        <v>1514.304485581983</v>
+        <v>2324.624498801544</v>
       </c>
       <c r="M23" t="n">
-        <v>1763.328345580272</v>
+        <v>2573.648358799832</v>
       </c>
       <c r="N23" t="n">
-        <v>2016.381671979762</v>
+        <v>2826.701685199323</v>
       </c>
       <c r="O23" t="n">
-        <v>3235.512418921594</v>
+        <v>3065.652765570848</v>
       </c>
       <c r="P23" t="n">
-        <v>4267.761512523459</v>
+        <v>4097.901859172713</v>
       </c>
       <c r="Q23" t="n">
-        <v>4966.704569922324</v>
+        <v>4797.550505169265</v>
       </c>
       <c r="R23" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612874</v>
       </c>
       <c r="S23" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T23" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U23" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625463</v>
       </c>
       <c r="V23" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W23" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970323</v>
       </c>
       <c r="X23" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549634</v>
       </c>
       <c r="Y23" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849287</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D24" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E24" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F24" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G24" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H24" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I24" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J24" t="n">
-        <v>198.9317639767728</v>
+        <v>475.0644613181681</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4621246260722</v>
+        <v>597.5948219674676</v>
       </c>
       <c r="L24" t="n">
-        <v>879.5247911404825</v>
+        <v>762.3520130461424</v>
       </c>
       <c r="M24" t="n">
-        <v>1071.788662034635</v>
+        <v>954.6158839402952</v>
       </c>
       <c r="N24" t="n">
-        <v>1269.141185492353</v>
+        <v>1151.968407398013</v>
       </c>
       <c r="O24" t="n">
-        <v>1449.680188511137</v>
+        <v>1332.507410416797</v>
       </c>
       <c r="P24" t="n">
-        <v>1594.578655033373</v>
+        <v>1477.405876939034</v>
       </c>
       <c r="Q24" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R24" t="n">
         <v>1738.551911998599</v>
@@ -6138,25 +6138,25 @@
         <v>469.3298894017154</v>
       </c>
       <c r="G25" t="n">
-        <v>304.3876875720297</v>
+        <v>304.3876875720296</v>
       </c>
       <c r="H25" t="n">
-        <v>170.2563635833851</v>
+        <v>170.256363583385</v>
       </c>
       <c r="I25" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="J25" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K25" t="n">
-        <v>440.762721282965</v>
+        <v>440.7627212829642</v>
       </c>
       <c r="L25" t="n">
-        <v>953.5517380968871</v>
+        <v>953.5517380968863</v>
       </c>
       <c r="M25" t="n">
-        <v>1512.756042210508</v>
+        <v>1512.756042210507</v>
       </c>
       <c r="N25" t="n">
         <v>2052.364153196736</v>
@@ -6205,7 +6205,7 @@
         <v>2511.072174364379</v>
       </c>
       <c r="C26" t="n">
-        <v>2072.929701547803</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D26" t="n">
         <v>1637.019916722247</v>
@@ -6214,52 +6214,52 @@
         <v>1203.245171880542</v>
       </c>
       <c r="F26" t="n">
-        <v>775.3777422897501</v>
+        <v>775.3777422897496</v>
       </c>
       <c r="G26" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H26" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I26" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J26" t="n">
-        <v>711.0053594437429</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K26" t="n">
         <v>1725.756262658218</v>
       </c>
       <c r="L26" t="n">
-        <v>1949.559173034901</v>
+        <v>2324.624498801545</v>
       </c>
       <c r="M26" t="n">
-        <v>2198.583033033189</v>
+        <v>2573.648358799833</v>
       </c>
       <c r="N26" t="n">
-        <v>2451.636359432679</v>
+        <v>2826.701685199323</v>
       </c>
       <c r="O26" t="n">
-        <v>3065.65276557085</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P26" t="n">
         <v>4097.901859172714</v>
       </c>
       <c r="Q26" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R26" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S26" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T26" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U26" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V26" t="n">
         <v>4169.655786559289</v>
@@ -6268,7 +6268,7 @@
         <v>3764.800331970323</v>
       </c>
       <c r="X26" t="n">
-        <v>3345.657868549634</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y26" t="n">
         <v>2937.371744849287</v>
@@ -6287,31 +6287,31 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D27" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E27" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F27" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G27" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H27" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I27" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9317639767728</v>
+        <v>549.5537621034428</v>
       </c>
       <c r="K27" t="n">
-        <v>714.7676000618079</v>
+        <v>714.7676000618073</v>
       </c>
       <c r="L27" t="n">
-        <v>879.5247911404825</v>
+        <v>879.5247911404821</v>
       </c>
       <c r="M27" t="n">
         <v>1071.788662034635</v>
@@ -6320,7 +6320,7 @@
         <v>1269.141185492353</v>
       </c>
       <c r="O27" t="n">
-        <v>1449.680188511137</v>
+        <v>1449.680188511136</v>
       </c>
       <c r="P27" t="n">
         <v>1594.578655033373</v>
@@ -6384,25 +6384,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J28" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K28" t="n">
-        <v>440.7627212829644</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5517380968865</v>
+        <v>785.3589632325541</v>
       </c>
       <c r="M28" t="n">
-        <v>1512.756042210508</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N28" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O28" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P28" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q28" t="n">
         <v>3039.667825881328</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2511.072174364379</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C29" t="n">
         <v>2072.929701547802</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.019916722247</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.245171880542</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F29" t="n">
-        <v>775.3777422897497</v>
+        <v>775.3777422897492</v>
       </c>
       <c r="G29" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469531</v>
       </c>
       <c r="H29" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I29" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J29" t="n">
-        <v>711.0053594437429</v>
+        <v>275.7506719908251</v>
       </c>
       <c r="K29" t="n">
-        <v>1725.756262658218</v>
+        <v>1290.5015752053</v>
       </c>
       <c r="L29" t="n">
-        <v>1949.559173034901</v>
+        <v>1514.304485581984</v>
       </c>
       <c r="M29" t="n">
-        <v>2198.583033033189</v>
+        <v>1763.328345580272</v>
       </c>
       <c r="N29" t="n">
-        <v>2451.636359432679</v>
+        <v>2393.020804587612</v>
       </c>
       <c r="O29" t="n">
-        <v>3065.65276557085</v>
+        <v>3612.151551529443</v>
       </c>
       <c r="P29" t="n">
-        <v>4097.901859172714</v>
+        <v>4644.400645131308</v>
       </c>
       <c r="Q29" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R29" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S29" t="n">
-        <v>5005.11227626512</v>
+        <v>5005.112276265119</v>
       </c>
       <c r="T29" t="n">
-        <v>4791.379279529731</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U29" t="n">
-        <v>4532.272736625463</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V29" t="n">
         <v>4169.655786559289</v>
       </c>
       <c r="W29" t="n">
-        <v>3764.800331970323</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X29" t="n">
         <v>3345.657868549633</v>
       </c>
       <c r="Y29" t="n">
-        <v>2937.371744849287</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="30">
@@ -6524,46 +6524,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D30" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E30" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F30" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G30" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H30" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I30" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9317639767728</v>
+        <v>224.9954371372304</v>
       </c>
       <c r="K30" t="n">
-        <v>321.4621246260722</v>
+        <v>347.5257977865298</v>
       </c>
       <c r="L30" t="n">
-        <v>486.2193157047469</v>
+        <v>512.2829888652046</v>
       </c>
       <c r="M30" t="n">
-        <v>678.4831865988998</v>
+        <v>704.5468597593574</v>
       </c>
       <c r="N30" t="n">
-        <v>875.8357100566178</v>
+        <v>901.8993832170756</v>
       </c>
       <c r="O30" t="n">
-        <v>1056.374713075401</v>
+        <v>1082.438386235859</v>
       </c>
       <c r="P30" t="n">
-        <v>1201.273179597638</v>
+        <v>1227.336852758096</v>
       </c>
       <c r="Q30" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R30" t="n">
         <v>1738.551911998599</v>
@@ -6621,25 +6621,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J31" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K31" t="n">
-        <v>440.7627212829644</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5517380968865</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M31" t="n">
-        <v>1512.756042210508</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N31" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O31" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P31" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q31" t="n">
         <v>3039.667825881328</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2511.07217436438</v>
+        <v>2511.072174364378</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.929701547804</v>
+        <v>2072.929701547802</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.019916722248</v>
+        <v>1637.019916722246</v>
       </c>
       <c r="E32" t="n">
-        <v>1203.245171880543</v>
+        <v>1203.245171880541</v>
       </c>
       <c r="F32" t="n">
-        <v>775.377742289751</v>
+        <v>775.3777422897492</v>
       </c>
       <c r="G32" t="n">
-        <v>375.4269081469535</v>
+        <v>375.4269081469534</v>
       </c>
       <c r="H32" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I32" t="n">
-        <v>155.3825509282454</v>
+        <v>155.3825509282453</v>
       </c>
       <c r="J32" t="n">
-        <v>275.7506719908251</v>
+        <v>711.005359443743</v>
       </c>
       <c r="K32" t="n">
-        <v>456.151283247122</v>
+        <v>1725.756262658218</v>
       </c>
       <c r="L32" t="n">
-        <v>1344.44483223124</v>
+        <v>2324.624498801545</v>
       </c>
       <c r="M32" t="n">
-        <v>1593.468692229528</v>
+        <v>2573.648358799833</v>
       </c>
       <c r="N32" t="n">
-        <v>1846.522018629019</v>
+        <v>2826.701685199323</v>
       </c>
       <c r="O32" t="n">
-        <v>3065.65276557085</v>
+        <v>3065.652765570849</v>
       </c>
       <c r="P32" t="n">
         <v>4097.901859172714</v>
       </c>
       <c r="Q32" t="n">
-        <v>4797.550505169267</v>
+        <v>4797.550505169266</v>
       </c>
       <c r="R32" t="n">
-        <v>5055.790700612876</v>
+        <v>5055.790700612875</v>
       </c>
       <c r="S32" t="n">
-        <v>5005.112276265121</v>
+        <v>5005.11227626512</v>
       </c>
       <c r="T32" t="n">
-        <v>4791.379279529732</v>
+        <v>4791.37927952973</v>
       </c>
       <c r="U32" t="n">
-        <v>4532.272736625464</v>
+        <v>4532.272736625462</v>
       </c>
       <c r="V32" t="n">
-        <v>4169.65578655929</v>
+        <v>4169.655786559289</v>
       </c>
       <c r="W32" t="n">
-        <v>3764.800331970324</v>
+        <v>3764.800331970322</v>
       </c>
       <c r="X32" t="n">
-        <v>3345.657868549635</v>
+        <v>3345.657868549633</v>
       </c>
       <c r="Y32" t="n">
-        <v>2937.371744849288</v>
+        <v>2937.371744849286</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>492.5796302409431</v>
       </c>
       <c r="D33" t="n">
-        <v>397.4893413874964</v>
+        <v>397.4893413874963</v>
       </c>
       <c r="E33" t="n">
-        <v>303.3689267144501</v>
+        <v>303.36892671445</v>
       </c>
       <c r="F33" t="n">
-        <v>219.9850883306117</v>
+        <v>219.9850883306116</v>
       </c>
       <c r="G33" t="n">
-        <v>135.37421037154</v>
+        <v>135.3742103715399</v>
       </c>
       <c r="H33" t="n">
         <v>101.1158140122575</v>
       </c>
       <c r="I33" t="n">
-        <v>127.2413356760813</v>
+        <v>153.3050088365389</v>
       </c>
       <c r="J33" t="n">
-        <v>198.9317639767728</v>
+        <v>224.9954371372304</v>
       </c>
       <c r="K33" t="n">
-        <v>714.7676000618079</v>
+        <v>347.5257977865298</v>
       </c>
       <c r="L33" t="n">
-        <v>879.5247911404825</v>
+        <v>512.2829888652046</v>
       </c>
       <c r="M33" t="n">
-        <v>1071.788662034635</v>
+        <v>704.5468597593574</v>
       </c>
       <c r="N33" t="n">
-        <v>1269.141185492353</v>
+        <v>901.8993832170756</v>
       </c>
       <c r="O33" t="n">
-        <v>1449.680188511137</v>
+        <v>1082.438386235859</v>
       </c>
       <c r="P33" t="n">
-        <v>1594.578655033373</v>
+        <v>1227.336852758096</v>
       </c>
       <c r="Q33" t="n">
-        <v>1691.439442613492</v>
+        <v>1574.266664519152</v>
       </c>
       <c r="R33" t="n">
         <v>1738.551911998599</v>
@@ -6858,25 +6858,25 @@
         <v>101.1158140122575</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0920848482878</v>
+        <v>232.6717700129776</v>
       </c>
       <c r="K34" t="n">
-        <v>440.7627212829644</v>
+        <v>581.3400537321738</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5517380968865</v>
+        <v>1094.129070546096</v>
       </c>
       <c r="M34" t="n">
-        <v>1512.756042210508</v>
+        <v>1344.563267346175</v>
       </c>
       <c r="N34" t="n">
-        <v>2052.364153196736</v>
+        <v>1884.171378332404</v>
       </c>
       <c r="O34" t="n">
-        <v>2561.951244644274</v>
+        <v>2393.758469779942</v>
       </c>
       <c r="P34" t="n">
-        <v>2986.398386422581</v>
+        <v>2818.205611558249</v>
       </c>
       <c r="Q34" t="n">
         <v>3039.667825881328</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.939689959062</v>
+        <v>1334.128894208446</v>
       </c>
       <c r="C35" t="n">
-        <v>2031.939689959062</v>
+        <v>895.9864213918689</v>
       </c>
       <c r="D35" t="n">
-        <v>1596.029905133506</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="E35" t="n">
-        <v>1162.255160291802</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="F35" t="n">
-        <v>734.3877307010093</v>
+        <v>460.0766365663134</v>
       </c>
       <c r="G35" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H35" t="n">
         <v>60.12580242351726</v>
@@ -6937,52 +6937,52 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J35" t="n">
-        <v>670.0153478550027</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K35" t="n">
-        <v>1075.029839918554</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L35" t="n">
-        <v>1819.08664490958</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M35" t="n">
-        <v>2068.110504907868</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N35" t="n">
-        <v>2321.163831307358</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O35" t="n">
-        <v>2560.114911678883</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P35" t="n">
-        <v>2764.054130447352</v>
+        <v>2048.4012797357</v>
       </c>
       <c r="Q35" t="n">
-        <v>2917.20399048531</v>
+        <v>2748.049925732253</v>
       </c>
       <c r="R35" t="n">
         <v>3006.290121175863</v>
       </c>
       <c r="S35" t="n">
-        <v>2955.611696828107</v>
+        <v>3006.290121175863</v>
       </c>
       <c r="T35" t="n">
-        <v>2741.878700092718</v>
+        <v>2792.557124440474</v>
       </c>
       <c r="U35" t="n">
-        <v>2482.77215718845</v>
+        <v>2533.450581536206</v>
       </c>
       <c r="V35" t="n">
-        <v>2458.23926044397</v>
+        <v>2170.833631470032</v>
       </c>
       <c r="W35" t="n">
-        <v>2458.23926044397</v>
+        <v>1765.978176881066</v>
       </c>
       <c r="X35" t="n">
-        <v>2458.23926044397</v>
+        <v>1346.835713460376</v>
       </c>
       <c r="Y35" t="n">
-        <v>2458.23926044397</v>
+        <v>1334.128894208446</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I36" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J36" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K36" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L36" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M36" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N36" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P36" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q36" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R36" t="n">
         <v>1697.561900409858</v>
@@ -7074,34 +7074,34 @@
         <v>1113.244639915734</v>
       </c>
       <c r="C37" t="n">
-        <v>940.682928398959</v>
+        <v>940.6829283989587</v>
       </c>
       <c r="D37" t="n">
-        <v>774.8049356004817</v>
+        <v>774.8049356004813</v>
       </c>
       <c r="E37" t="n">
-        <v>605.0469318512189</v>
+        <v>605.0469318512187</v>
       </c>
       <c r="F37" t="n">
-        <v>428.3398778129751</v>
+        <v>428.3398778129749</v>
       </c>
       <c r="G37" t="n">
-        <v>263.3976759832894</v>
+        <v>263.3976759832891</v>
       </c>
       <c r="H37" t="n">
-        <v>129.2663519946448</v>
+        <v>129.2663519946445</v>
       </c>
       <c r="I37" t="n">
         <v>60.12580242351726</v>
       </c>
       <c r="J37" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K37" t="n">
-        <v>399.7727096942242</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L37" t="n">
-        <v>912.5617265081463</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M37" t="n">
         <v>1471.766030621767</v>
@@ -7134,7 +7134,7 @@
         <v>2049.901088400909</v>
       </c>
       <c r="W37" t="n">
-        <v>1777.874683987201</v>
+        <v>1777.8746839872</v>
       </c>
       <c r="X37" t="n">
         <v>1532.482929320613</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1608.439988343142</v>
+        <v>1795.820234498146</v>
       </c>
       <c r="C38" t="n">
-        <v>1170.297515526565</v>
+        <v>1357.67776168157</v>
       </c>
       <c r="D38" t="n">
-        <v>734.3877307010093</v>
+        <v>921.7679768560143</v>
       </c>
       <c r="E38" t="n">
-        <v>734.3877307010093</v>
+        <v>487.9932320143095</v>
       </c>
       <c r="F38" t="n">
-        <v>734.3877307010093</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="G38" t="n">
-        <v>334.4368965582132</v>
+        <v>60.12580242351726</v>
       </c>
       <c r="H38" t="n">
         <v>60.12580242351726</v>
@@ -7174,25 +7174,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J38" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K38" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L38" t="n">
-        <v>638.9641820350653</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M38" t="n">
-        <v>887.9880420333534</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N38" t="n">
-        <v>1141.041368432844</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O38" t="n">
-        <v>1885.09817342387</v>
+        <v>2320.352860876788</v>
       </c>
       <c r="P38" t="n">
-        <v>2594.900065694295</v>
+        <v>2524.292079645256</v>
       </c>
       <c r="Q38" t="n">
         <v>2748.049925732253</v>
@@ -7204,22 +7204,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T38" t="n">
-        <v>2741.878700092718</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U38" t="n">
-        <v>2482.77215718845</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V38" t="n">
-        <v>2120.155207122277</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="W38" t="n">
-        <v>2120.155207122277</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="X38" t="n">
-        <v>2016.726112043488</v>
+        <v>2630.405928683401</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.439988343142</v>
+        <v>2222.119804983054</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I39" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J39" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K39" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L39" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M39" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N39" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O39" t="n">
-        <v>1408.690176922396</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P39" t="n">
-        <v>1553.588643444633</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q39" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R39" t="n">
         <v>1697.561900409858</v>
@@ -7332,13 +7332,13 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K40" t="n">
-        <v>399.7727096942242</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L40" t="n">
-        <v>912.5617265081463</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M40" t="n">
         <v>1471.766030621767</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2042.214733184846</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="C41" t="n">
-        <v>1604.07226036827</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="D41" t="n">
-        <v>1168.162475542714</v>
+        <v>1196.07907099071</v>
       </c>
       <c r="E41" t="n">
-        <v>734.3877307010093</v>
+        <v>762.3043261490054</v>
       </c>
       <c r="F41" t="n">
-        <v>734.3877307010093</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="G41" t="n">
         <v>334.4368965582132</v>
@@ -7411,25 +7411,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J41" t="n">
-        <v>234.7606604020848</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K41" t="n">
-        <v>415.1612716583817</v>
+        <v>850.4159591112997</v>
       </c>
       <c r="L41" t="n">
-        <v>638.9641820350653</v>
+        <v>1074.218869487984</v>
       </c>
       <c r="M41" t="n">
-        <v>1383.020987026091</v>
+        <v>1323.242729486272</v>
       </c>
       <c r="N41" t="n">
-        <v>2127.077792017117</v>
+        <v>1576.296055885762</v>
       </c>
       <c r="O41" t="n">
-        <v>2366.028872388642</v>
+        <v>1815.247136257288</v>
       </c>
       <c r="P41" t="n">
-        <v>2569.968091157111</v>
+        <v>2559.303941248314</v>
       </c>
       <c r="Q41" t="n">
         <v>2748.049925732253</v>
@@ -7441,22 +7441,22 @@
         <v>2955.611696828107</v>
       </c>
       <c r="T41" t="n">
-        <v>2955.611696828107</v>
+        <v>2741.878700092718</v>
       </c>
       <c r="U41" t="n">
-        <v>2696.505153923839</v>
+        <v>2482.77215718845</v>
       </c>
       <c r="V41" t="n">
-        <v>2333.888203857666</v>
+        <v>2446.376559485274</v>
       </c>
       <c r="W41" t="n">
-        <v>2333.888203857666</v>
+        <v>2041.521104896307</v>
       </c>
       <c r="X41" t="n">
-        <v>2042.214733184846</v>
+        <v>1622.378641475618</v>
       </c>
       <c r="Y41" t="n">
-        <v>2042.214733184846</v>
+        <v>1622.378641475618</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I42" t="n">
-        <v>86.25132408734105</v>
+        <v>112.3149972477987</v>
       </c>
       <c r="J42" t="n">
-        <v>157.9417523880325</v>
+        <v>434.0744497294277</v>
       </c>
       <c r="K42" t="n">
-        <v>280.472113037332</v>
+        <v>556.6048103787272</v>
       </c>
       <c r="L42" t="n">
-        <v>445.2293041160066</v>
+        <v>721.3620014574019</v>
       </c>
       <c r="M42" t="n">
-        <v>637.4931750101595</v>
+        <v>913.6258723515548</v>
       </c>
       <c r="N42" t="n">
-        <v>834.8456984678776</v>
+        <v>1110.978395809273</v>
       </c>
       <c r="O42" t="n">
-        <v>1015.384701486661</v>
+        <v>1291.517398828056</v>
       </c>
       <c r="P42" t="n">
-        <v>1160.283168008898</v>
+        <v>1436.415865350293</v>
       </c>
       <c r="Q42" t="n">
-        <v>1650.449431024751</v>
+        <v>1533.276652930412</v>
       </c>
       <c r="R42" t="n">
         <v>1697.561900409858</v>
@@ -7569,25 +7569,25 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1020732595475</v>
+        <v>191.6817584242374</v>
       </c>
       <c r="K43" t="n">
-        <v>399.7727096942242</v>
+        <v>540.3500421434336</v>
       </c>
       <c r="L43" t="n">
-        <v>912.5617265081463</v>
+        <v>744.3689516438138</v>
       </c>
       <c r="M43" t="n">
-        <v>1471.766030621767</v>
+        <v>1303.573255757435</v>
       </c>
       <c r="N43" t="n">
-        <v>2011.374141607996</v>
+        <v>1843.181366743664</v>
       </c>
       <c r="O43" t="n">
-        <v>2520.961233055534</v>
+        <v>2352.768458191201</v>
       </c>
       <c r="P43" t="n">
-        <v>2945.408374833841</v>
+        <v>2777.215599969509</v>
       </c>
       <c r="Q43" t="n">
         <v>2998.677814292588</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1367.952804907354</v>
+        <v>2188.139292172967</v>
       </c>
       <c r="C44" t="n">
-        <v>929.8103320907776</v>
+        <v>1749.99681935639</v>
       </c>
       <c r="D44" t="n">
-        <v>493.9005472652221</v>
+        <v>1596.029905133506</v>
       </c>
       <c r="E44" t="n">
-        <v>60.12580242351726</v>
+        <v>1162.255160291802</v>
       </c>
       <c r="F44" t="n">
-        <v>60.12580242351726</v>
+        <v>734.3877307010093</v>
       </c>
       <c r="G44" t="n">
-        <v>60.12580242351726</v>
+        <v>334.4368965582132</v>
       </c>
       <c r="H44" t="n">
         <v>60.12580242351726</v>
@@ -7648,25 +7648,25 @@
         <v>114.3925393395051</v>
       </c>
       <c r="J44" t="n">
-        <v>670.0153478550027</v>
+        <v>670.0153478550028</v>
       </c>
       <c r="K44" t="n">
-        <v>850.4159591112995</v>
+        <v>886.012083557281</v>
       </c>
       <c r="L44" t="n">
-        <v>1074.218869487983</v>
+        <v>1109.814993933965</v>
       </c>
       <c r="M44" t="n">
-        <v>1323.242729486271</v>
+        <v>1358.838853932253</v>
       </c>
       <c r="N44" t="n">
-        <v>1576.296055885762</v>
+        <v>1611.892180331743</v>
       </c>
       <c r="O44" t="n">
-        <v>1815.247136257287</v>
+        <v>1850.843260703269</v>
       </c>
       <c r="P44" t="n">
-        <v>2048.4012797357</v>
+        <v>2594.900065694295</v>
       </c>
       <c r="Q44" t="n">
         <v>2748.049925732253</v>
@@ -7675,25 +7675,25 @@
         <v>3006.290121175863</v>
       </c>
       <c r="S44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="T44" t="n">
-        <v>3006.290121175863</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="U44" t="n">
-        <v>2980.867243468091</v>
+        <v>2955.611696828107</v>
       </c>
       <c r="V44" t="n">
-        <v>2618.250293401918</v>
+        <v>2592.994746761934</v>
       </c>
       <c r="W44" t="n">
-        <v>2213.394838812951</v>
+        <v>2188.139292172967</v>
       </c>
       <c r="X44" t="n">
-        <v>1794.252375392262</v>
+        <v>2188.139292172967</v>
       </c>
       <c r="Y44" t="n">
-        <v>1794.252375392262</v>
+        <v>2188.139292172967</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>60.12580242351726</v>
       </c>
       <c r="I45" t="n">
-        <v>112.3149972477986</v>
+        <v>86.25132408734105</v>
       </c>
       <c r="J45" t="n">
-        <v>508.5637505147024</v>
+        <v>157.9417523880326</v>
       </c>
       <c r="K45" t="n">
-        <v>631.0941111640018</v>
+        <v>280.472113037332</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8513022426764</v>
+        <v>445.2293041160067</v>
       </c>
       <c r="M45" t="n">
-        <v>988.1151731368293</v>
+        <v>637.4931750101596</v>
       </c>
       <c r="N45" t="n">
-        <v>1228.151173903613</v>
+        <v>834.8456984678777</v>
       </c>
       <c r="O45" t="n">
-        <v>1408.690176922396</v>
+        <v>1015.384701486661</v>
       </c>
       <c r="P45" t="n">
-        <v>1553.588643444633</v>
+        <v>1160.283168008898</v>
       </c>
       <c r="Q45" t="n">
         <v>1650.449431024751</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.244639915734</v>
+        <v>1113.244639915735</v>
       </c>
       <c r="C46" t="n">
-        <v>940.6829283989586</v>
+        <v>940.6829283989596</v>
       </c>
       <c r="D46" t="n">
-        <v>774.8049356004813</v>
+        <v>774.8049356004822</v>
       </c>
       <c r="E46" t="n">
-        <v>605.0469318512186</v>
+        <v>605.0469318512191</v>
       </c>
       <c r="F46" t="n">
-        <v>428.3398778129748</v>
+        <v>428.3398778129754</v>
       </c>
       <c r="G46" t="n">
         <v>263.3976759832894</v>
@@ -7806,16 +7806,16 @@
         <v>60.12580242351726</v>
       </c>
       <c r="J46" t="n">
-        <v>105.1020732595475</v>
+        <v>105.1020732595476</v>
       </c>
       <c r="K46" t="n">
-        <v>399.7727096942245</v>
+        <v>399.772709694224</v>
       </c>
       <c r="L46" t="n">
-        <v>912.5617265081466</v>
+        <v>912.5617265081461</v>
       </c>
       <c r="M46" t="n">
-        <v>1471.766030621768</v>
+        <v>1471.766030621767</v>
       </c>
       <c r="N46" t="n">
         <v>2011.374141607996</v>
@@ -7839,19 +7839,19 @@
         <v>2615.254193287674</v>
       </c>
       <c r="U46" t="n">
-        <v>2336.856596530478</v>
+        <v>2336.856596530479</v>
       </c>
       <c r="V46" t="n">
         <v>2049.901088400909</v>
       </c>
       <c r="W46" t="n">
-        <v>1777.8746839872</v>
+        <v>1777.874683987201</v>
       </c>
       <c r="X46" t="n">
         <v>1532.482929320613</v>
       </c>
       <c r="Y46" t="n">
-        <v>1305.063258634721</v>
+        <v>1305.063258634722</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8148,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -8303,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>13.31876740878122</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K7" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="L7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -8534,13 +8534,13 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>41.31500304752734</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>569.3496906411405</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>150.5064626872943</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>495.9631096884196</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1198817345728</v>
       </c>
       <c r="P11" t="n">
         <v>545.5733194167249</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>43.11462354450998</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>222.9907144309257</v>
+        <v>135.5364869918445</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>569.3496906411406</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>70.67422543554608</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>29.51002495953958</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>252.5949739201389</v>
       </c>
       <c r="K15" t="n">
-        <v>397.2782580158943</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>53.09902264877121</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>39.12806733010166</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>185.8719794580587</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>495.9631096884196</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>510.2078026459604</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>29.51002495954003</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>252.5949739201389</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>222.9907144309254</v>
+        <v>135.5364869918449</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5089844589316</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>495.9631096884199</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>170.5707976450871</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>29.51002495953958</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>252.5949739201389</v>
       </c>
       <c r="K21" t="n">
-        <v>397.2782580158943</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>135.5364869918445</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9573,13 +9573,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>112.0193352648887</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>378.85386441075</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>551.3062599605119</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>252.5949739201391</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>222.9907144309259</v>
+        <v>135.5364869918444</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>378.8538644107509</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>378.8538644107529</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>397.2782580158946</v>
+        <v>43.11462354451021</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>222.9907144309253</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10123,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>380.443568290757</v>
       </c>
       <c r="O29" t="n">
-        <v>378.8538644107529</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>397.2782580158944</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>222.9907144309253</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>671.2026652600349</v>
+        <v>378.8538644107509</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>397.2782580158946</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>252.5949739201392</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>222.9907144309253</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>152.2361210781526</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>226.8827078861154</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5089844589316</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>29.51002495953958</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>252.5949739201389</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>222.9907144309254</v>
+        <v>135.5364869918445</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>510.2078026459604</v>
+        <v>510.2078026459601</v>
       </c>
       <c r="P38" t="n">
-        <v>510.9723974767237</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>71.32119802933175</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>252.5949739201389</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>397.278258015894</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>222.9907144309254</v>
+        <v>135.5364869918445</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>500.0332777704423</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>495.9631096884199</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q41" t="n">
-        <v>25.18381266382224</v>
+        <v>35.95568125856698</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>252.5949739201389</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>397.2782580158942</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>222.9907144309254</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>110.5452267216355</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645587</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>35.95568125856698</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>29.51002495954026</v>
+        <v>545.5733194167249</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>43.11462354451055</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>397.2782580158939</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>222.9907144309257</v>
+        <v>222.9907144309251</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>359.3018402070971</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5989449565055</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.3939584271795</v>
+        <v>60.04448816269712</v>
       </c>
     </row>
     <row r="15">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>291.9975960069137</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>134.1479935342207</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.5154774752252</v>
@@ -23794,10 +23794,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>284.9120600133373</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.17164010427808</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T20" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5154774752252</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>66.50855051887174</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>50.17164010427806</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>334.7032127884759</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>391.6235114039319</v>
       </c>
     </row>
     <row r="36">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>271.5679831933489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.5956667680352</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>312.5562346584817</v>
+        <v>92.99732832322314</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.9513258013682</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.5956667680352</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>322.959138839367</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>126.1943028203913</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>279.1234418966452</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9513258013682</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5679831933489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.17164010427808</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.5956667680352</v>
       </c>
       <c r="U44" t="n">
-        <v>231.3468285445315</v>
+        <v>256.5154774752252</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>374621.6570912563</v>
+        <v>374621.6570912562</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>565761.194010402</v>
+        <v>565761.1940104018</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>565761.194010402</v>
+        <v>565761.1940104018</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>565761.194010402</v>
+        <v>565761.1940104018</v>
       </c>
     </row>
     <row r="13">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986277</v>
@@ -26322,13 +26322,13 @@
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>349528.5041190661</v>
+        <v>349528.5041190662</v>
       </c>
       <c r="F2" t="n">
         <v>349528.5041190662</v>
       </c>
       <c r="G2" t="n">
-        <v>349528.5041190662</v>
+        <v>349528.5041190663</v>
       </c>
       <c r="H2" t="n">
         <v>349528.5041190662</v>
@@ -26337,25 +26337,25 @@
         <v>495936.2708986279</v>
       </c>
       <c r="J2" t="n">
-        <v>495936.2708986279</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="K2" t="n">
-        <v>495936.2708986279</v>
+        <v>495936.2708986278</v>
       </c>
       <c r="L2" t="n">
-        <v>495936.2708986279</v>
+        <v>495936.270898628</v>
       </c>
       <c r="M2" t="n">
         <v>349528.5041190663</v>
       </c>
       <c r="N2" t="n">
-        <v>349528.5041190661</v>
+        <v>349528.5041190663</v>
       </c>
       <c r="O2" t="n">
         <v>349528.5041190663</v>
       </c>
       <c r="P2" t="n">
-        <v>349528.5041190663</v>
+        <v>349528.5041190662</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498352.8259836707</v>
+        <v>498352.8259836708</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136251.3108961175</v>
+        <v>136251.3108961174</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.82265736732</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49313.08122041602</v>
+        <v>49313.08122041608</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>301646.5989996908</v>
       </c>
       <c r="E4" t="n">
-        <v>63447.66966717356</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="F4" t="n">
-        <v>63447.66966717355</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="G4" t="n">
-        <v>63447.66966717354</v>
+        <v>63447.66966717353</v>
       </c>
       <c r="H4" t="n">
-        <v>63447.66966717354</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="I4" t="n">
-        <v>124249.5450329029</v>
+        <v>124249.5450329028</v>
       </c>
       <c r="J4" t="n">
         <v>124249.5450329029</v>
       </c>
       <c r="K4" t="n">
-        <v>124249.5450329029</v>
+        <v>124249.5450329028</v>
       </c>
       <c r="L4" t="n">
         <v>124249.5450329029</v>
       </c>
       <c r="M4" t="n">
-        <v>63447.66966717356</v>
+        <v>63447.66966717351</v>
       </c>
       <c r="N4" t="n">
+        <v>63447.66966717351</v>
+      </c>
+      <c r="O4" t="n">
         <v>63447.66966717353</v>
       </c>
-      <c r="O4" t="n">
-        <v>63447.66966717355</v>
-      </c>
       <c r="P4" t="n">
-        <v>63447.66966717355</v>
+        <v>63447.66966717351</v>
       </c>
     </row>
     <row r="5">
@@ -26481,25 +26481,25 @@
         <v>53463.84704971767</v>
       </c>
       <c r="F5" t="n">
+        <v>53463.84704971767</v>
+      </c>
+      <c r="G5" t="n">
         <v>53463.84704971768</v>
-      </c>
-      <c r="G5" t="n">
-        <v>53463.84704971767</v>
       </c>
       <c r="H5" t="n">
         <v>53463.84704971767</v>
       </c>
       <c r="I5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="J5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="K5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="L5" t="n">
-        <v>84616.25585716027</v>
+        <v>84616.25585716026</v>
       </c>
       <c r="M5" t="n">
         <v>53463.84704971767</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144304.5119473506</v>
+        <v>144304.5119473508</v>
       </c>
       <c r="C6" t="n">
         <v>158150.1197136472</v>
@@ -26530,19 +26530,19 @@
         <v>158150.1197136472</v>
       </c>
       <c r="E6" t="n">
-        <v>-265735.8385814957</v>
+        <v>-266131.5352484675</v>
       </c>
       <c r="F6" t="n">
-        <v>232616.987402175</v>
+        <v>232221.2907352032</v>
       </c>
       <c r="G6" t="n">
-        <v>232616.987402175</v>
+        <v>232221.2907352033</v>
       </c>
       <c r="H6" t="n">
-        <v>232616.987402175</v>
+        <v>232221.2907352032</v>
       </c>
       <c r="I6" t="n">
-        <v>150819.1591124472</v>
+        <v>150819.1591124473</v>
       </c>
       <c r="J6" t="n">
         <v>276260.6473511974</v>
@@ -26551,19 +26551,19 @@
         <v>287070.4700085647</v>
       </c>
       <c r="L6" t="n">
-        <v>287070.4700085647</v>
+        <v>287070.4700085649</v>
       </c>
       <c r="M6" t="n">
-        <v>183303.9061817591</v>
+        <v>182908.2095147872</v>
       </c>
       <c r="N6" t="n">
-        <v>232616.9874021749</v>
+        <v>232221.2907352033</v>
       </c>
       <c r="O6" t="n">
-        <v>232616.9874021751</v>
+        <v>232221.2907352033</v>
       </c>
       <c r="P6" t="n">
-        <v>232616.9874021751</v>
+        <v>232221.2907352032</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="F3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="G3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="H3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="I3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="J3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="K3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="L3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="M3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="N3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="O3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="P3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
     </row>
     <row r="4">
@@ -26801,10 +26801,10 @@
         <v>751.5725302939657</v>
       </c>
       <c r="F4" t="n">
+        <v>751.5725302939657</v>
+      </c>
+      <c r="G4" t="n">
         <v>751.5725302939658</v>
-      </c>
-      <c r="G4" t="n">
-        <v>751.5725302939657</v>
       </c>
       <c r="H4" t="n">
         <v>751.5725302939657</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.341156323145</v>
+        <v>356.3411563231451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>512.3751448592534</v>
+        <v>512.3751448592529</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752763</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>197.8823823871849</v>
+        <v>197.8823823871851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,16 +27460,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D3" t="n">
-        <v>57.7491312806502</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
-        <v>51.86420747878847</v>
+        <v>56.78895584205372</v>
       </c>
       <c r="F3" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
         <v>84.53123883647795</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>134.4458397173452</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>148.7487506218503</v>
       </c>
       <c r="H4" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27602,7 +27602,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27709,10 +27709,10 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>4.928040977687559</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27751,10 +27751,10 @@
         <v>87.56185418517705</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>155.6494827990271</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27827,22 +27827,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U7" t="n">
         <v>234.3336676918984</v>
       </c>
       <c r="V7" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>209.9588623764525</v>
       </c>
     </row>
     <row r="8">
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>56.78895584205373</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>43.21623578895061</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27991,13 +27991,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>160.7360880743585</v>
       </c>
       <c r="W9" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28028,7 +28028,7 @@
         <v>122.6203591769033</v>
       </c>
       <c r="H10" t="n">
-        <v>97.18814951900188</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>46.45834668554406</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>121.2587003307212</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28070,10 +28070,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>242.7709500007465</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -31758,40 +31758,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I11" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J11" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L11" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M11" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N11" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P11" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R11" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S11" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T11" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1146021809280465</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H12" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K12" t="n">
         <v>123.7680410598984</v>
@@ -31852,19 +31852,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P12" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R12" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S12" t="n">
         <v>14.23683770781621</v>
@@ -31873,7 +31873,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H13" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I13" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K13" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L13" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M13" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N13" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O13" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P13" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R13" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S13" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T13" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I14" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J14" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K14" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L14" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M14" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N14" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O14" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S14" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T14" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1146021809280465</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H15" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K15" t="n">
         <v>123.7680410598984</v>
@@ -32089,19 +32089,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O15" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P15" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S15" t="n">
         <v>14.23683770781621</v>
@@ -32110,7 +32110,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H16" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I16" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K16" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L16" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M16" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N16" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O16" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P16" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R16" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S16" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T16" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I17" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J17" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L17" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M17" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O17" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S17" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T17" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1146021809280465</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H18" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K18" t="n">
         <v>123.7680410598984</v>
@@ -32326,19 +32326,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P18" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S18" t="n">
         <v>14.23683770781621</v>
@@ -32347,7 +32347,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H19" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I19" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K19" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L19" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M19" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N19" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O19" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P19" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R19" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S19" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T19" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I20" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J20" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L20" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M20" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O20" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S20" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T20" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1146021809280465</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H21" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K21" t="n">
         <v>123.7680410598984</v>
@@ -32563,19 +32563,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O21" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P21" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S21" t="n">
         <v>14.23683770781621</v>
@@ -32584,7 +32584,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H22" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I22" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J22" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K22" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L22" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M22" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N22" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O22" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P22" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R22" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S22" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,40 +32706,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I23" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J23" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K23" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L23" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M23" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O23" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P23" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q23" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S23" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T23" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1146021809280465</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H24" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K24" t="n">
         <v>123.7680410598984</v>
@@ -32800,19 +32800,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O24" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P24" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S24" t="n">
         <v>14.23683770781621</v>
@@ -32821,7 +32821,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H25" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I25" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K25" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L25" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M25" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N25" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O25" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q25" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R25" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S25" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,40 +32943,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I26" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J26" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K26" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L26" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O26" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P26" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q26" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R26" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S26" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T26" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1146021809280465</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H27" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K27" t="n">
         <v>123.7680410598984</v>
@@ -33037,19 +33037,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O27" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R27" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S27" t="n">
         <v>14.23683770781621</v>
@@ -33058,7 +33058,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H28" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I28" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K28" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L28" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M28" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N28" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O28" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P28" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R28" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S28" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T28" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,40 +33180,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I29" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J29" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L29" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O29" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P29" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q29" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R29" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S29" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T29" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1146021809280465</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H30" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598984</v>
@@ -33274,19 +33274,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P30" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S30" t="n">
         <v>14.23683770781621</v>
@@ -33295,7 +33295,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H31" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I31" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K31" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L31" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M31" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N31" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O31" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P31" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R31" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S31" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T31" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,40 +33417,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I32" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J32" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L32" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M32" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N32" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P32" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q32" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R32" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S32" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T32" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1146021809280465</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H33" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K33" t="n">
         <v>123.7680410598984</v>
@@ -33511,19 +33511,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O33" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S33" t="n">
         <v>14.23683770781621</v>
@@ -33532,7 +33532,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H34" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I34" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K34" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L34" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M34" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N34" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O34" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P34" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R34" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S34" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T34" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,40 +33654,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I35" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J35" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K35" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L35" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M35" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S35" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T35" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1146021809280465</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H36" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K36" t="n">
         <v>123.7680410598984</v>
@@ -33748,19 +33748,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P36" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S36" t="n">
         <v>14.23683770781621</v>
@@ -33769,7 +33769,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H37" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I37" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K37" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L37" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M37" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N37" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O37" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P37" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R37" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S37" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T37" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,40 +33891,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I38" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J38" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L38" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M38" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N38" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O38" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P38" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R38" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S38" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T38" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1146021809280465</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H39" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K39" t="n">
         <v>123.7680410598984</v>
@@ -33985,19 +33985,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O39" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P39" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S39" t="n">
         <v>14.23683770781621</v>
@@ -34006,7 +34006,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H40" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I40" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K40" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L40" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M40" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N40" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O40" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P40" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q40" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R40" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S40" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,40 +34128,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I41" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J41" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L41" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M41" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N41" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O41" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P41" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q41" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R41" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S41" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T41" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1146021809280465</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H42" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K42" t="n">
         <v>123.7680410598984</v>
@@ -34222,19 +34222,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P42" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S42" t="n">
         <v>14.23683770781621</v>
@@ -34243,7 +34243,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H43" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I43" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K43" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L43" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M43" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N43" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O43" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P43" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R43" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S43" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,40 +34365,40 @@
         <v>14.67086981786696</v>
       </c>
       <c r="I44" t="n">
-        <v>55.22750725285648</v>
+        <v>55.2275072528565</v>
       </c>
       <c r="J44" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K44" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L44" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M44" t="n">
-        <v>251.5392525235233</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N44" t="n">
-        <v>255.609420605546</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480052</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P44" t="n">
-        <v>205.9992108772408</v>
+        <v>205.9992108772409</v>
       </c>
       <c r="Q44" t="n">
-        <v>154.6968283211699</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R44" t="n">
-        <v>89.98599059651762</v>
+        <v>89.98599059651765</v>
       </c>
       <c r="S44" t="n">
-        <v>32.64371497372328</v>
+        <v>32.6437149737233</v>
       </c>
       <c r="T44" t="n">
-        <v>6.27088808765655</v>
+        <v>6.270888087656552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1146021809280465</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7664696569969534</v>
+        <v>0.7664696569969536</v>
       </c>
       <c r="H45" t="n">
-        <v>7.402483266260051</v>
+        <v>7.402483266260052</v>
       </c>
       <c r="I45" t="n">
-        <v>26.38941582204423</v>
+        <v>26.38941582204424</v>
       </c>
       <c r="J45" t="n">
-        <v>72.41457404110251</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K45" t="n">
         <v>123.7680410598984</v>
@@ -34459,19 +34459,19 @@
         <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O45" t="n">
-        <v>182.3626293119023</v>
+        <v>182.3626293119024</v>
       </c>
       <c r="P45" t="n">
-        <v>146.3620873961989</v>
+        <v>146.362087396199</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385672</v>
+        <v>97.83917937385675</v>
       </c>
       <c r="R45" t="n">
-        <v>47.58835291424946</v>
+        <v>47.58835291424947</v>
       </c>
       <c r="S45" t="n">
         <v>14.23683770781621</v>
@@ -34480,7 +34480,7 @@
         <v>3.089410591141228</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05042563532874695</v>
+        <v>0.05042563532874696</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6425824130417367</v>
+        <v>0.6425824130417369</v>
       </c>
       <c r="H46" t="n">
-        <v>5.713141817771081</v>
+        <v>5.713141817771083</v>
       </c>
       <c r="I46" t="n">
-        <v>19.32420565765514</v>
+        <v>19.32420565765515</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K46" t="n">
-        <v>74.65639307884904</v>
+        <v>74.65639307884906</v>
       </c>
       <c r="L46" t="n">
-        <v>95.53447984440513</v>
+        <v>95.53447984440515</v>
       </c>
       <c r="M46" t="n">
         <v>100.7277140734424</v>
       </c>
       <c r="N46" t="n">
-        <v>98.33263417028692</v>
+        <v>98.33263417028697</v>
       </c>
       <c r="O46" t="n">
-        <v>90.82610325429933</v>
+        <v>90.82610325429935</v>
       </c>
       <c r="P46" t="n">
-        <v>77.71742202824784</v>
+        <v>77.71742202824787</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.80751460479489</v>
+        <v>53.8075146047949</v>
       </c>
       <c r="R46" t="n">
-        <v>28.89284195367663</v>
+        <v>28.89284195367664</v>
       </c>
       <c r="S46" t="n">
-        <v>11.19845896182735</v>
+        <v>11.19845896182736</v>
       </c>
       <c r="T46" t="n">
-        <v>2.745579401178329</v>
+        <v>2.74557940117833</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03504994980227659</v>
+        <v>0.0350499498022766</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34868,10 +34868,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>39.64570999510202</v>
-      </c>
-      <c r="O4" t="n">
-        <v>41.31500304752735</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>39.64570999510202</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>41.31500304752734</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>13.31876740878122</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K7" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="L7" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M7" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="Q8" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R8" t="n">
         <v>41.31500304752734</v>
@@ -35254,13 +35254,13 @@
         <v>41.31500304752736</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>13.31876740878121</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>41.31500304752734</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>39.64570999510201</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J11" t="n">
         <v>121.5839606692725</v>
       </c>
       <c r="K11" t="n">
-        <v>182.2228396528251</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="L11" t="n">
-        <v>226.0635458350339</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M11" t="n">
-        <v>402.0457152108177</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N11" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O11" t="n">
-        <v>241.3647276480051</v>
+        <v>318.4846093825781</v>
       </c>
       <c r="P11" t="n">
         <v>751.5725302939657</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J12" t="n">
-        <v>72.41457404110251</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K12" t="n">
-        <v>123.7680410598984</v>
+        <v>166.8826646044084</v>
       </c>
       <c r="L12" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M12" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N12" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O12" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P12" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q12" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R12" t="n">
         <v>47.58835291424953</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K13" t="n">
-        <v>297.6471075097747</v>
+        <v>210.1928800706935</v>
       </c>
       <c r="L13" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M13" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O13" t="n">
-        <v>514.7344358055936</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P13" t="n">
         <v>428.7344866447547</v>
@@ -35591,7 +35591,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R13" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K14" t="n">
-        <v>751.5725302939658</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L14" t="n">
-        <v>296.73777127058</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M14" t="n">
         <v>251.5392525235234</v>
@@ -35664,13 +35664,13 @@
         <v>241.3647276480053</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q14" t="n">
         <v>706.7158040369222</v>
       </c>
       <c r="R14" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J15" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612414</v>
       </c>
       <c r="K15" t="n">
-        <v>521.0462990757926</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M15" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N15" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O15" t="n">
         <v>182.3626293119023</v>
@@ -35749,7 +35749,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R15" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>132.8848040411315</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K16" t="n">
-        <v>352.1901855749456</v>
+        <v>127.7554157276203</v>
       </c>
       <c r="L16" t="n">
         <v>517.9687038524467</v>
@@ -35816,19 +35816,19 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N16" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O16" t="n">
         <v>514.7344358055939</v>
       </c>
       <c r="P16" t="n">
-        <v>116.8454893583494</v>
+        <v>428.7344866447547</v>
       </c>
       <c r="Q16" t="n">
         <v>223.6992063869488</v>
       </c>
       <c r="R16" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J17" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K17" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L17" t="n">
-        <v>226.0635458350339</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M17" t="n">
-        <v>437.411231981582</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N17" t="n">
-        <v>751.5725302939657</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O17" t="n">
-        <v>751.5725302939657</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P17" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367808</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R17" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J18" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612414</v>
       </c>
       <c r="K18" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M18" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N18" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O18" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P18" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q18" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R18" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K19" t="n">
-        <v>297.6471075097744</v>
+        <v>210.1928800706939</v>
       </c>
       <c r="L19" t="n">
         <v>517.9687038524467</v>
@@ -36053,7 +36053,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O19" t="n">
         <v>514.7344358055939</v>
@@ -36065,7 +36065,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R19" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J20" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K20" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L20" t="n">
-        <v>751.5725302939657</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M20" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N20" t="n">
-        <v>751.5725302939659</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O20" t="n">
-        <v>411.9355252930923</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P20" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R20" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J21" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612414</v>
       </c>
       <c r="K21" t="n">
-        <v>521.0462990757926</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M21" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N21" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O21" t="n">
         <v>182.3626293119023</v>
@@ -36223,7 +36223,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R21" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>132.8848040411314</v>
       </c>
       <c r="K22" t="n">
-        <v>352.1901855749456</v>
+        <v>210.1928800706935</v>
       </c>
       <c r="L22" t="n">
         <v>517.9687038524467</v>
@@ -36290,19 +36290,19 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O22" t="n">
-        <v>202.8454385191881</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P22" t="n">
         <v>428.7344866447547</v>
       </c>
       <c r="Q22" t="n">
-        <v>223.6992063869488</v>
+        <v>53.80751460479496</v>
       </c>
       <c r="R22" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K23" t="n">
-        <v>1025.000912337853</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L23" t="n">
-        <v>226.0635458350339</v>
+        <v>604.9174102457841</v>
       </c>
       <c r="M23" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N23" t="n">
-        <v>255.6094206055461</v>
+        <v>255.6094206055459</v>
       </c>
       <c r="O23" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P23" t="n">
         <v>1042.675852123096</v>
       </c>
       <c r="Q23" t="n">
-        <v>706.0030882816818</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R23" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662717</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J24" t="n">
-        <v>72.41457404110253</v>
+        <v>325.0095479612417</v>
       </c>
       <c r="K24" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L24" t="n">
-        <v>563.6996631458691</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M24" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N24" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O24" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P24" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q24" t="n">
         <v>97.83917937385672</v>
       </c>
       <c r="R24" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K25" t="n">
-        <v>297.647107509775</v>
+        <v>210.1928800706935</v>
       </c>
       <c r="L25" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M25" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N25" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O25" t="n">
-        <v>514.7344358055934</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P25" t="n">
         <v>428.7344866447547</v>
@@ -36539,7 +36539,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R25" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J26" t="n">
-        <v>561.2351601166642</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K26" t="n">
-        <v>1025.000912337853</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L26" t="n">
-        <v>226.0635458350339</v>
+        <v>604.917410245785</v>
       </c>
       <c r="M26" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N26" t="n">
         <v>255.6094206055459</v>
       </c>
       <c r="O26" t="n">
-        <v>620.2185920587581</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P26" t="n">
-        <v>1042.675852123095</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q26" t="n">
         <v>706.7158040369222</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J27" t="n">
-        <v>72.41457404110253</v>
+        <v>400.2512659261655</v>
       </c>
       <c r="K27" t="n">
-        <v>521.0462990757931</v>
+        <v>166.8826646044087</v>
       </c>
       <c r="L27" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M27" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N27" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O27" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P27" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q27" t="n">
         <v>97.83917937385672</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K28" t="n">
-        <v>297.6471075097744</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L28" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M28" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N28" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O28" t="n">
         <v>514.7344358055939</v>
@@ -36773,10 +36773,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q28" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R28" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J29" t="n">
-        <v>561.2351601166642</v>
+        <v>121.5839606692725</v>
       </c>
       <c r="K29" t="n">
-        <v>1025.000912337853</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L29" t="n">
-        <v>226.0635458350339</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M29" t="n">
-        <v>251.5392525235231</v>
+        <v>251.5392525235234</v>
       </c>
       <c r="N29" t="n">
-        <v>255.6094206055459</v>
+        <v>636.0529888963031</v>
       </c>
       <c r="O29" t="n">
-        <v>620.2185920587581</v>
+        <v>1231.445198931143</v>
       </c>
       <c r="P29" t="n">
-        <v>1042.675852123095</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q29" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R29" t="n">
         <v>260.8486822662717</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J30" t="n">
-        <v>72.41457404110253</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K30" t="n">
         <v>123.7680410598984</v>
       </c>
       <c r="L30" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M30" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N30" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O30" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P30" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q30" t="n">
-        <v>495.1174373897511</v>
+        <v>350.4341532939959</v>
       </c>
       <c r="R30" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K31" t="n">
-        <v>297.6471075097744</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L31" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M31" t="n">
-        <v>564.8528324380011</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N31" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O31" t="n">
         <v>514.7344358055939</v>
@@ -37010,10 +37010,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q31" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R31" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J32" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K32" t="n">
-        <v>182.2228396528251</v>
+        <v>1025.000912337854</v>
       </c>
       <c r="L32" t="n">
-        <v>897.2662110950689</v>
+        <v>604.917410245785</v>
       </c>
       <c r="M32" t="n">
         <v>251.5392525235234</v>
@@ -37083,10 +37083,10 @@
         <v>255.6094206055459</v>
       </c>
       <c r="O32" t="n">
-        <v>1231.445198931143</v>
+        <v>241.3647276480051</v>
       </c>
       <c r="P32" t="n">
-        <v>1042.675852123095</v>
+        <v>1042.675852123096</v>
       </c>
       <c r="Q32" t="n">
         <v>706.7158040369222</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.38941582204424</v>
+        <v>52.71635840836504</v>
       </c>
       <c r="J33" t="n">
-        <v>72.41457404110253</v>
+        <v>72.41457404110255</v>
       </c>
       <c r="K33" t="n">
-        <v>521.0462990757931</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L33" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M33" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N33" t="n">
-        <v>199.3459832906242</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O33" t="n">
         <v>182.3626293119023</v>
       </c>
       <c r="P33" t="n">
-        <v>146.3620873961988</v>
+        <v>146.3620873961991</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.83917937385672</v>
+        <v>350.4341532939959</v>
       </c>
       <c r="R33" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.43057660205079</v>
+        <v>132.8848040411315</v>
       </c>
       <c r="K34" t="n">
-        <v>297.6471075097744</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L34" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M34" t="n">
-        <v>564.8528324380011</v>
+        <v>252.963835151595</v>
       </c>
       <c r="N34" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O34" t="n">
         <v>514.7344358055939</v>
@@ -37247,10 +37247,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R34" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J35" t="n">
-        <v>561.2351601166642</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K35" t="n">
-        <v>409.1055475389405</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L35" t="n">
-        <v>751.5725302939657</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M35" t="n">
         <v>251.5392525235234</v>
       </c>
       <c r="N35" t="n">
-        <v>255.6094206055459</v>
+        <v>255.6094206055461</v>
       </c>
       <c r="O35" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P35" t="n">
-        <v>205.9992108772408</v>
+        <v>235.5092358367804</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.69682832117</v>
+        <v>706.7158040369222</v>
       </c>
       <c r="R35" t="n">
-        <v>89.98599059651769</v>
+        <v>260.8486822662721</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J36" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612414</v>
       </c>
       <c r="K36" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L36" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M36" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N36" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O36" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P36" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q36" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R36" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K37" t="n">
-        <v>297.6471075097744</v>
+        <v>210.1928800706935</v>
       </c>
       <c r="L37" t="n">
         <v>517.9687038524467</v>
@@ -37475,7 +37475,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N37" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O37" t="n">
         <v>514.7344358055939</v>
@@ -37487,7 +37487,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R37" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J38" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K38" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L38" t="n">
-        <v>226.0635458350339</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M38" t="n">
         <v>251.5392525235234</v>
@@ -37557,13 +37557,13 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O38" t="n">
-        <v>751.5725302939657</v>
+        <v>751.5725302939654</v>
       </c>
       <c r="P38" t="n">
-        <v>716.9716083539645</v>
+        <v>205.9992108772408</v>
       </c>
       <c r="Q38" t="n">
-        <v>154.69682832117</v>
+        <v>226.0180263505017</v>
       </c>
       <c r="R38" t="n">
         <v>260.8486822662721</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J39" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612414</v>
       </c>
       <c r="K39" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L39" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M39" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N39" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O39" t="n">
-        <v>579.6408873277963</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P39" t="n">
         <v>146.3620873961991</v>
@@ -37645,7 +37645,7 @@
         <v>97.83917937385672</v>
       </c>
       <c r="R39" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K40" t="n">
-        <v>297.6471075097744</v>
+        <v>210.1928800706935</v>
       </c>
       <c r="L40" t="n">
         <v>517.9687038524467</v>
@@ -37712,7 +37712,7 @@
         <v>564.8528324380011</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O40" t="n">
         <v>514.7344358055939</v>
@@ -37724,7 +37724,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R40" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J41" t="n">
-        <v>121.5839606692725</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K41" t="n">
-        <v>182.2228396528251</v>
+        <v>182.2228396528252</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0635458350339</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M41" t="n">
+        <v>251.5392525235234</v>
+      </c>
+      <c r="N41" t="n">
+        <v>255.6094206055461</v>
+      </c>
+      <c r="O41" t="n">
+        <v>241.3647276480053</v>
+      </c>
+      <c r="P41" t="n">
         <v>751.5725302939657</v>
       </c>
-      <c r="N41" t="n">
-        <v>751.5725302939659</v>
-      </c>
-      <c r="O41" t="n">
-        <v>241.3647276480051</v>
-      </c>
-      <c r="P41" t="n">
-        <v>205.9992108772408</v>
-      </c>
       <c r="Q41" t="n">
-        <v>179.8806409849922</v>
+        <v>190.6525095797369</v>
       </c>
       <c r="R41" t="n">
         <v>260.8486822662721</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.38941582204423</v>
+        <v>52.71635840836505</v>
       </c>
       <c r="J42" t="n">
-        <v>72.41457404110251</v>
+        <v>325.0095479612414</v>
       </c>
       <c r="K42" t="n">
-        <v>123.7680410598984</v>
+        <v>123.7680410598985</v>
       </c>
       <c r="L42" t="n">
-        <v>166.4214051299745</v>
+        <v>166.4214051299746</v>
       </c>
       <c r="M42" t="n">
         <v>194.205930196114</v>
       </c>
       <c r="N42" t="n">
-        <v>199.3459832906243</v>
+        <v>199.3459832906244</v>
       </c>
       <c r="O42" t="n">
-        <v>182.3626293119022</v>
+        <v>182.3626293119023</v>
       </c>
       <c r="P42" t="n">
         <v>146.3620873961991</v>
       </c>
       <c r="Q42" t="n">
-        <v>495.1174373897509</v>
+        <v>97.83917937385672</v>
       </c>
       <c r="R42" t="n">
-        <v>47.58835291424953</v>
+        <v>165.9446944236836</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.43057660205078</v>
+        <v>132.8848040411314</v>
       </c>
       <c r="K43" t="n">
-        <v>297.6471075097744</v>
+        <v>352.1901855749456</v>
       </c>
       <c r="L43" t="n">
-        <v>517.9687038524467</v>
+        <v>206.0797065660406</v>
       </c>
       <c r="M43" t="n">
         <v>564.8528324380011</v>
       </c>
       <c r="N43" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O43" t="n">
         <v>514.7344358055939</v>
@@ -37958,10 +37958,10 @@
         <v>428.7344866447547</v>
       </c>
       <c r="Q43" t="n">
-        <v>53.80751460479496</v>
+        <v>223.6992063869488</v>
       </c>
       <c r="R43" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.81488577372508</v>
+        <v>54.8148857737251</v>
       </c>
       <c r="J44" t="n">
-        <v>561.2351601166642</v>
+        <v>561.2351601166644</v>
       </c>
       <c r="K44" t="n">
-        <v>182.222839652825</v>
+        <v>218.1785209113922</v>
       </c>
       <c r="L44" t="n">
-        <v>226.063545835034</v>
+        <v>226.0635458350341</v>
       </c>
       <c r="M44" t="n">
         <v>251.5392525235234</v>
@@ -38031,13 +38031,13 @@
         <v>255.6094206055461</v>
       </c>
       <c r="O44" t="n">
-        <v>241.3647276480051</v>
+        <v>241.3647276480053</v>
       </c>
       <c r="P44" t="n">
-        <v>235.509235836781</v>
+        <v>751.5725302939657</v>
       </c>
       <c r="Q44" t="n">
-        <v>706.7158040369222</v>
+        <v>154.69682832117</v>
       </c>
       <c r="R44" t="n">
         <v>260.8486822662721</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.71635840836503</v>
+        <v>26.38941582204423</v>
       </c>
       <c r="J45" t="n">
-        <v>400.2512659261654</v>
+        <v>72.41457404110254</v>
       </c>
       <c r="K45" t="n">
-        <v>123.7680410598983</v>
+        <v>123.7680410598984</v>
       </c>
       <c r="L45" t="n">
         <v>166.4214051299745</v>
@@ -38107,7 +38107,7 @@
         <v>194.205930196114</v>
       </c>
       <c r="N45" t="n">
-        <v>242.4606068351347</v>
+        <v>199.3459832906243</v>
       </c>
       <c r="O45" t="n">
         <v>182.3626293119023</v>
@@ -38116,7 +38116,7 @@
         <v>146.3620873961991</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.83917937385672</v>
+        <v>495.1174373897506</v>
       </c>
       <c r="R45" t="n">
         <v>47.58835291424953</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.43057660205078</v>
+        <v>45.4305766020508</v>
       </c>
       <c r="K46" t="n">
-        <v>297.6471075097747</v>
+        <v>297.6471075097742</v>
       </c>
       <c r="L46" t="n">
         <v>517.9687038524467</v>
       </c>
       <c r="M46" t="n">
-        <v>564.852832438001</v>
+        <v>564.8528324380011</v>
       </c>
       <c r="N46" t="n">
-        <v>545.0586979658874</v>
+        <v>545.0586979658876</v>
       </c>
       <c r="O46" t="n">
-        <v>514.7344358055936</v>
+        <v>514.7344358055939</v>
       </c>
       <c r="P46" t="n">
         <v>428.7344866447547</v>
@@ -38198,7 +38198,7 @@
         <v>53.80751460479496</v>
       </c>
       <c r="R46" t="n">
-        <v>7.689198871994794</v>
+        <v>7.689198871994801</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
